--- a/database.xlsx
+++ b/database.xlsx
@@ -22,43 +22,43 @@
     <t>Eleanor Thompson</t>
   </si>
   <si>
-    <t>Hello, thank, sharing, feeling, today, therapist, role, provide, support, guidance, like, suggest, methods, help, maintain, current, mental, state, let, know, like, suggestions, sounds, like, lovely, way, spend, time, loved, ones, Enjoying, meal, create, sense, connection, strengthen, family, bonds, Reminiscing, positive, experiences, like, evoke, feelings, happiness, contentment, specific, dinner, stood, wonderful, hear, enjoyed, minestrone, soup, Food, evoke, nostalgic, memories, bring, comfort, like, try, recreating, recipe, home, find, recipes, hold, sentimental, value, act, cooking, savoring, familiar, flavors, therapeutic, enjoyable, experience, sorry, hear, facing, difficulties, cooking, weak, arms, challenging, cook, traditional, sense, alternative, ways, enjoy, process, explore, simpler, recipes, require, time, effort, consider, kitchen, appliances, slow, cookers, pre, cut, pre, prepared, ingredients, Additionally, involving, loved, caregiver, cooking, process, provide, assistance, create, bonding, experience, understand, limitations, want, suggest, easier, alternative, considered, making, chilled, soup, like, gazpacho, requires, minimal, cooking, primarily, involves, blending, fresh, ingredients, like, tomatoes, cucumbers, bell, peppers, Alternatively, explore, recipes, smoothies, bake, desserts, offer, creative, outlet, physical, demands, cooking, fantastic, hear, granddaughter, enjoys, making, smoothies, wonderful, activity, bond, experiment, different, combinations, fruits, vegetables, add, yogurt, milk, added, creaminess, Smoothies, delicious, packed, nutrients, great, way, involve, granddaughter, kitchen, create, lasting, memories, Enjoy, smoothie, making, adventures</t>
+    <t>pancakes, breakfast, syrup, fluffy, batter, buttermilk, blueberry, maple, toppings, whipped cream, chocolate chips, brunch, pancake stack, crepes, waffles, butter, flapjacks, savory, flipping, homemade</t>
   </si>
   <si>
     <t>Harold Smith</t>
   </si>
   <si>
-    <t>sorry, hear, feeling, certain, way, therapist, provide, support, guidance, feel, free, share, feeling, assist, better, wonderful, hear, nice, know, son, engaging, activities, outside, work, Reminiscing, experiences, fishing, discussing, benefits, spending, time, nature, helpful, way, maintain, mental, state, sounds, like, fond, memories, experiences, fishing, Reminiscing, times, great, way, maintain, mental, state, share, stories, son, compare, things, changed, years, interesting, hear, fishing, techniques, changed, time, Reminiscing, experiences, catching, fish, bare, hands, great, way, connect, son, share, stories, past, important, appreciate, differences, similarities, generations, find, common, ground</t>
+    <t>fishing, son, father, bonding, bait, tackle, rod, reel, fishing spot, patience, casting, catch, outdoors, nature, fish species, teaching, memories, adventure, equipment, fish stories</t>
   </si>
   <si>
     <t>Mildred Johnson</t>
   </si>
   <si>
-    <t>Hello, provide, therapeutic, support, feel, free, share, feeling, best, assist, great, hear, able, meet, friends, mall, wonderful, way, spend, time, enjoy, company, specific, experience, mall, like, discuss, reminisce, sorry, hear, loss, friend, Betty, Losing, care, incredibly, challenging, help, time, reminisce, positive, memories, experiences, shared, Remembering, good, times, healing, way, honor, memory</t>
+    <t>shopping, friends, teapots, ceramics, tea, kitchenware, browse, explore, designs, patterns, sizes, colors, decorations, collections, unique, vintage, modern, aesthetics, store, window shopping</t>
   </si>
   <si>
     <t>Walter Davis</t>
   </si>
   <si>
-    <t>Hello, provide, therapeutic, support, feel, free, share, feeling, best, assist, Rainy, days, evoke, emotions, different, people, sound, raindrops, brings, memories, cozy, moments, invigorating, walks, nature, opportunity, reminisce, pleasant, experiences, rainy, days, let, positive, memories, bring, sense, comfort, relaxation, Getting, lost, frightening, experience, especially, unfamiliar, surroundings, bad, weather, helpful, focus, ways, able, navigate, challenging, situation, Remembering, resourcefulness, support, family, provide, sense, resilience, strength, helpful, appreciate, lessons, learned, experience, importance, preparedness, staying, calm, difficult, circumstances, Getting, lost, frightening, experience, especially, bad, weather, understandable, scary, Reflecting, experience, think, able, navigate, challenging, situation, Focus, resilience, support, family, Remembering, strengths, help, provide, sense, empowerment, reassurance, Additionally, beneficial, practice, relaxation, techniques, grounding, exercises, moments, anxiety, fear, sounds, like, dad, found, lighthearted, way, express, relief, found, Humor, wonderful, tool, cope, challenging, situations, Reflect, moment, try, remember, laughter, relief, followed, important, find, joy, difficult, situations, help, build, resilience, perspective</t>
+    <t>daughter, graduation, ceremony, emotional, tears, proud, achievement, diploma, cap and gown, family, moment, speech, happiness, milestones, success, future, milestones, celebration, memories, joy</t>
   </si>
   <si>
     <t>Florence Anderson</t>
   </si>
   <si>
-    <t>Hello, Therapist, reminiscence, therapist, listen, provide, guidance, feel, free, share, feeling, best, assist, sorry, hear, feeling, sick, today, feeling, helpful, focus, taking, care, physical, health, Resting, staying, hydrated, seeking, medical, advice, necessary, important, steps, regaining, like, explore, positive, memories, experiences, uplift, spirits, Remember, self, care, crucial, times, illness, understandable, hesitant, medicine, important, consider, potential, benefits, provide, overall, health, Reflect, past, experiences, taking, medication, positive, outcomes, feeling, better, managing, symptoms, effectively, Discuss, concerns, healthcare, provider, address, reservations, medication, common, nostalgic, connections, certain, foods, bring, comfort, times, illness, help, jog, memory, try, thinking, taste, texture, specific, ingredients, food, try, asking, family, members, loved, ones, recall, dish, thinking, Exploring, memories, bring, sense, warmth, familiarity</t>
+    <t>baby, escape, adventure, house, 400 meters, willpower, unexpected, surprise, parents, safety, curiosity, journey, exploration, neighborhood, rescue, wander, concern, panic, remarkable, determination</t>
   </si>
   <si>
     <t>Bernard White</t>
   </si>
   <si>
-    <t>Hey, feeling, today, particular, like, talk, reminisce, suggest, conversation, starter, help, jog, memory, ball, rolling, course, talk, memorable, vacation, trip, specific, vacation, stands, mind, trip, brings, positive, vibes, memories, love, hear, sounds, absolutely, wonderful, Blue, Mountains, sound, like, serene, picturesque, place, tell, peaceful, specific, moments, experiences, stand, lovely, Bird, watching, sounds, like, serene, calming, activity, tell, birds, saw, specific, species, caught, attention, left, lasting, impression, John, Wow, great, big, red, cockatoo, sounds, absolutely, breathtaking, imagine, seeing, vibrant, majestic, bird, leave, lasting, impression, manage, capture, photos, videos, cockatoo, truly, special, moment, witness, beauty, close</t>
+    <t>funeral, grandfather, rainy, dreary, mourning, family, solemn, grief, memories, reflection, weather, somber, emotional, support, umbrellas, cemetery, eulogy, remembrance, farewell, atmosphere</t>
   </si>
   <si>
     <t>Gertrude Martin</t>
   </si>
   <si>
-    <t>Hey, noticed, looking, chat, positive, memories, boost, mood, particular, memory, like, talk, shall, kick, things, conversation, starter, help, ball, rolling, worries, start, simple, Tell, favorite, vacations, trips, taken, special, memorable, experience, Absolutely, problem, Let, dive, prompt, recalling, time, accomplished, proud, big, small, like, acing, test, completing, project, learning, new, skill, feel, fantastic, Learning, crochet, wonderful, skill, tell, started, learning, discover, crochet, motivated, try, think, message, got, cut, worries, Seven, years, old, great, age, start, learning, new, like, crochet, family, know, crochet, come, crochet, sparked, interest, young, age, lovely, Learning, crochet, mother, special, experience, like, spending, time, learning, share, specific, memory, moment, stands, crochet, lessons, Haha, sight, unexpected, amusing, moments, memories, precious, mother, react, cat, mistook, crochet, hook, rat, tail, turn, playful, lighthearted, moment, laugh, today</t>
+    <t>teacher, chair, incident, broken arm, school, classroom, injury, traumatic, conflict, consequences, school safety, shock, authorities, investigation, legal, counseling, support, recovery, students, discipline</t>
   </si>
 </sst>
 </file>

--- a/database.xlsx
+++ b/database.xlsx
@@ -40,7 +40,7 @@
     <t>Walter Davis</t>
   </si>
   <si>
-    <t>daughter, graduation, ceremony, emotional, tears, proud, achievement, diploma, cap and gown, family, moment, speech, happiness, milestones, success, future, milestones, celebration, memories, joy</t>
+    <t>daughter, graduation, ceremony, emotional, tears, proud, achievement, diploma, cap and gown, university, moment, speech, happiness, milestones, success, future, milestones, celebration, memories, joy</t>
   </si>
   <si>
     <t>Florence Anderson</t>
